--- a/biology/Zoologie/Cnémophile_soyeux/Cnémophile_soyeux.xlsx
+++ b/biology/Zoologie/Cnémophile_soyeux/Cnémophile_soyeux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cn%C3%A9mophile_soyeux</t>
+          <t>Cnémophile_soyeux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loboparadisea sericea
 Le Cnémophile soyeux ou Paradisier soyeux (Loboparadisea sericea) est une espèce de passereaux, seul représentant du genre Loboparadisea. Ce genre, traditionnellement classé dans la famille des Paradiséidés (famille des paradisiers ou oiseaux de paradis), appartient à la famille des Cnemophilidae, d'après la classification de référence du Congrès ornithologique international.
